--- a/dataset/Intent Detector/Voice Assistant_Details(Dataset).xlsx
+++ b/dataset/Intent Detector/Voice Assistant_Details(Dataset).xlsx
@@ -5,33 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Machine Learning\Projects\Intelligent Voice Assistant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Machine Learning\Projects\Intelligent Voice Assistant\dataset\Intent Detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2625FF6-A96F-4665-88B8-089CF46FF9C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC327412-8791-4CCC-B82E-43D918418ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Compiled" sheetId="2" r:id="rId2"/>
-    <sheet name="math calculations" sheetId="3" r:id="rId3"/>
-    <sheet name="calender" sheetId="4" r:id="rId4"/>
-    <sheet name="brightness control" sheetId="5" r:id="rId5"/>
-    <sheet name="Wallpaper Control" sheetId="6" r:id="rId6"/>
-    <sheet name="notifications" sheetId="7" r:id="rId7"/>
-    <sheet name="routemap" sheetId="8" r:id="rId8"/>
-    <sheet name="weather" sheetId="9" r:id="rId9"/>
-    <sheet name="Google search" sheetId="10" r:id="rId10"/>
-    <sheet name="Call" sheetId="11" r:id="rId11"/>
-    <sheet name="text" sheetId="12" r:id="rId12"/>
+    <sheet name="youtube" sheetId="13" r:id="rId2"/>
+    <sheet name="Compiled" sheetId="2" r:id="rId3"/>
+    <sheet name="math calculations" sheetId="3" r:id="rId4"/>
+    <sheet name="calender" sheetId="4" r:id="rId5"/>
+    <sheet name="brightness control" sheetId="5" r:id="rId6"/>
+    <sheet name="Wallpaper Control" sheetId="6" r:id="rId7"/>
+    <sheet name="notifications" sheetId="7" r:id="rId8"/>
+    <sheet name="routemap" sheetId="8" r:id="rId9"/>
+    <sheet name="weather" sheetId="9" r:id="rId10"/>
+    <sheet name="Google search" sheetId="10" r:id="rId11"/>
+    <sheet name="Call" sheetId="11" r:id="rId12"/>
+    <sheet name="text" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="289">
   <si>
     <t>A</t>
   </si>
@@ -859,6 +860,45 @@
   </si>
   <si>
     <t>help me to call</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>intent.youtube</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>Can you youtube</t>
+  </si>
+  <si>
+    <t>Show me on youtube</t>
+  </si>
+  <si>
+    <t>lookup on youtube</t>
+  </si>
+  <si>
+    <t>Search on youtube</t>
+  </si>
+  <si>
+    <t>Show me search results on youtube</t>
+  </si>
+  <si>
+    <t>youtube on</t>
+  </si>
+  <si>
+    <t>fetch results from youtube</t>
+  </si>
+  <si>
+    <t>get some results from youtube</t>
+  </si>
+  <si>
+    <t>research on youtube</t>
+  </si>
+  <si>
+    <t>tell me all you have from youtube</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1185,8 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1235,6 +1275,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B16" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
         <v>17</v>
@@ -1251,6 +1296,172 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1436,7 +1647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1622,7 +1833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1809,13 +2020,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA1F6DE-701F-456D-A40D-5206AED64BC6}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B231"/>
+  <dimension ref="A1:B242"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection sqref="A1:B242"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3671,12 +3991,100 @@
         <v>241</v>
       </c>
     </row>
+    <row r="232" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A232" t="s">
+        <v>278</v>
+      </c>
+      <c r="B232" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A233" t="s">
+        <v>279</v>
+      </c>
+      <c r="B233" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A234" t="s">
+        <v>280</v>
+      </c>
+      <c r="B234" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A235" t="s">
+        <v>281</v>
+      </c>
+      <c r="B235" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A236" t="s">
+        <v>282</v>
+      </c>
+      <c r="B236" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A237" t="s">
+        <v>283</v>
+      </c>
+      <c r="B237" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A238" t="s">
+        <v>284</v>
+      </c>
+      <c r="B238" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A239" t="s">
+        <v>285</v>
+      </c>
+      <c r="B239" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A240" t="s">
+        <v>286</v>
+      </c>
+      <c r="B240" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A241" t="s">
+        <v>287</v>
+      </c>
+      <c r="B241" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A242" t="s">
+        <v>288</v>
+      </c>
+      <c r="B242" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3757,7 +4165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3858,7 +4266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3914,7 +4322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4020,7 +4428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4141,7 +4549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4360,170 +4768,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:A30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>